--- a/register.xlsx
+++ b/register.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8216E04-C015-114E-B208-D30F47228945}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{124DD9DE-F4A9-224C-A965-C6EDA0B812C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Email</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>test000001@gmail.com</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Hà nội</t>
   </si>
 </sst>
 </file>
@@ -434,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,7 +461,7 @@
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -456,8 +471,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
@@ -467,52 +491,61 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>921312</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="7"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
     </row>

--- a/register.xlsx
+++ b/register.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{124DD9DE-F4A9-224C-A965-C6EDA0B812C8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{449FB255-E163-0F47-A0B8-9488E97D58BB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="2500" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Email</t>
   </si>
@@ -40,25 +40,37 @@
     <t>mua000</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>test000001@gmail.com</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Abc</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
-    <t>Hà nội</t>
+    <t>nguyễn đức tú</t>
+  </si>
+  <si>
+    <t>trần bá đạt</t>
+  </si>
+  <si>
+    <t>lê an đức</t>
+  </si>
+  <si>
+    <t>đỗ đình phong</t>
+  </si>
+  <si>
+    <t>test000116@gmail.com</t>
+  </si>
+  <si>
+    <t>test000117@gmail.com</t>
+  </si>
+  <si>
+    <t>test000118@gmail.com</t>
+  </si>
+  <si>
+    <t>test000119@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -153,7 +165,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -166,7 +178,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -449,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -472,65 +483,89 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>921312</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -543,7 +578,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
@@ -554,44 +589,43 @@
       <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="11"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="10"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="11"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
@@ -704,14 +738,14 @@
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{09749EE3-C514-524D-9CC8-47F2EB800329}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{967E52D2-C199-024F-A7C7-E6EFB5B747BE}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{96B9D864-5D95-0B46-9DC7-EC479D6FAB21}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{C131BC6F-11F3-BE4D-BEAA-A91182C8536B}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{D4A58CBC-E364-0A46-BE86-DA7930A12F81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>